--- a/Hobol/0647_7/CD/0647_7 Szolgalmi jog koord.xlsx
+++ b/Hobol/0647_7/CD/0647_7 Szolgalmi jog koord.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Munka\Hobol\0647_7\CD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="11340" windowHeight="7245" tabRatio="334"/>
   </bookViews>
@@ -18,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Pontkód</t>
   </si>
@@ -139,12 +134,48 @@
   <si>
     <t>32/11/2019</t>
   </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>szántás széle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -218,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,16 +301,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,7 +329,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -351,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,10 +422,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,7 +456,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,14 +631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="12" customWidth="1"/>
@@ -613,7 +650,8 @@
     <col min="8" max="8" width="8.42578125" style="12" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="14" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="12" customWidth="1"/>
-    <col min="11" max="16" width="12" style="24" customWidth="1"/>
+    <col min="11" max="14" width="12" style="24" customWidth="1"/>
+    <col min="15" max="16" width="12" style="22" customWidth="1"/>
     <col min="17" max="22" width="11.28515625" style="15" customWidth="1"/>
     <col min="23" max="24" width="10" style="15" customWidth="1"/>
     <col min="25" max="25" width="14.28515625" style="1" customWidth="1"/>
@@ -625,7 +663,7 @@
     <col min="31" max="31" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="4" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -648,8 +686,8 @@
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
       <c r="S1" s="15"/>
@@ -666,7 +704,7 @@
       <c r="AD1" s="8"/>
       <c r="AE1" s="9"/>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="2" customFormat="1" ht="9" customHeight="1">
       <c r="B2" s="12"/>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -680,8 +718,8 @@
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
@@ -698,16 +736,16 @@
       <c r="AD2" s="8"/>
       <c r="AE2" s="9"/>
     </row>
-    <row r="3" spans="1:31" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="1:31" s="3" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="7" t="s">
         <v>36</v>
       </c>
@@ -716,12 +754,12 @@
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
@@ -734,19 +772,21 @@
       <c r="AD3" s="8"/>
       <c r="AE3" s="9"/>
     </row>
-    <row r="4" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+    <row r="4" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="7"/>
       <c r="J4" s="12"/>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
-      <c r="T4" s="24"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="T4" s="22"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
@@ -759,27 +799,29 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="12"/>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
-      <c r="T5" s="24"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="T5" s="22"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
@@ -792,27 +834,29 @@
       <c r="AD5" s="8"/>
       <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="12"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
-      <c r="T6" s="24"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="T6" s="22"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
@@ -825,27 +869,29 @@
       <c r="AD6" s="8"/>
       <c r="AE6" s="9"/>
     </row>
-    <row r="7" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="12"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
-      <c r="T7" s="24"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="T7" s="22"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
@@ -858,7 +904,7 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="9"/>
     </row>
-    <row r="8" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
       <c r="D8" s="13"/>
@@ -870,7 +916,9 @@
       <c r="J8" s="12"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
-      <c r="T8" s="24"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="T8" s="22"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -883,21 +931,23 @@
       <c r="AD8" s="8"/>
       <c r="AE8" s="9"/>
     </row>
-    <row r="9" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="25" t="s">
+    <row r="9" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="7"/>
       <c r="J9" s="12"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
-      <c r="T9" s="24"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="T9" s="22"/>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
@@ -910,7 +960,7 @@
       <c r="AD9" s="8"/>
       <c r="AE9" s="9"/>
     </row>
-    <row r="10" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -922,7 +972,9 @@
       <c r="J10" s="12"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
-      <c r="T10" s="24"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="T10" s="22"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
@@ -935,27 +987,30 @@
       <c r="AD10" s="8"/>
       <c r="AE10" s="9"/>
     </row>
-    <row r="11" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="T11" s="24"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="22"/>
+      <c r="T11" s="22"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
@@ -968,29 +1023,32 @@
       <c r="AD11" s="8"/>
       <c r="AE11" s="9"/>
     </row>
-    <row r="12" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="22" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="1"/>
@@ -1001,36 +1059,36 @@
       <c r="AD12" s="8"/>
       <c r="AE12" s="9"/>
     </row>
-    <row r="13" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
+    <row r="13" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24" t="s">
+      <c r="G13" s="22"/>
+      <c r="H13" s="22" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
       <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="1"/>
@@ -1041,36 +1099,36 @@
       <c r="AD13" s="8"/>
       <c r="AE13" s="9"/>
     </row>
-    <row r="14" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
+    <row r="14" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24" t="s">
+      <c r="G14" s="22"/>
+      <c r="H14" s="22" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
       <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="1"/>
@@ -1081,36 +1139,36 @@
       <c r="AD14" s="8"/>
       <c r="AE14" s="9"/>
     </row>
-    <row r="15" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24" t="s">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24" t="s">
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
       <c r="Y15" s="1"/>
@@ -1121,36 +1179,36 @@
       <c r="AD15" s="8"/>
       <c r="AE15" s="9"/>
     </row>
-    <row r="16" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="1"/>
@@ -1161,60 +1219,60 @@
       <c r="AD16" s="8"/>
       <c r="AE16" s="9"/>
     </row>
-    <row r="17" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:31" ht="14.25" customHeight="1">
       <c r="G17" s="13"/>
       <c r="H17" s="7"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-    </row>
-    <row r="18" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+    </row>
+    <row r="18" spans="2:31" ht="14.25" customHeight="1">
       <c r="G18" s="13"/>
       <c r="H18" s="7"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-    </row>
-    <row r="19" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+    </row>
+    <row r="19" spans="2:31" ht="14.25" customHeight="1">
       <c r="G19" s="13"/>
       <c r="H19" s="7"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-    </row>
-    <row r="20" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+    </row>
+    <row r="20" spans="2:31" ht="14.25" customHeight="1">
       <c r="G20" s="13"/>
       <c r="H20" s="7"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-    </row>
-    <row r="21" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+    </row>
+    <row r="21" spans="2:31" ht="14.25" customHeight="1">
       <c r="G21" s="13"/>
       <c r="H21" s="7"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-    </row>
-    <row r="22" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="25" t="s">
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+    </row>
+    <row r="22" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B22" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
@@ -1223,18 +1281,18 @@
       <c r="AD22"/>
       <c r="AE22"/>
     </row>
-    <row r="23" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
+    <row r="23" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
@@ -1243,193 +1301,319 @@
       <c r="AD23"/>
       <c r="AE23"/>
     </row>
-    <row r="24" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="G24" s="21"/>
+    <row r="24" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B24" s="22"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="7"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-    </row>
-    <row r="25" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="7"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-    </row>
-    <row r="26" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="7"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-    </row>
-    <row r="27" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="7"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-    </row>
-    <row r="28" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+    </row>
+    <row r="25" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B25" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="13">
+        <v>552666.81999999995</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="13">
+        <v>74705.210000000006</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+    </row>
+    <row r="26" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B26" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="13">
+        <v>553099.38</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="13">
+        <v>74657.75</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+    </row>
+    <row r="27" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B27" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="13">
+        <v>552987.09</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="13">
+        <v>73811.94</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+    </row>
+    <row r="28" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B28" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="13">
+        <v>552849.36</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="13">
+        <v>73828.95</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B29" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="13">
+        <v>552834.69999999995</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="13">
+        <v>73730.210000000006</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B30" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="13">
+        <v>552541.02</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13">
+        <v>73769.33</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B31" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="13">
+        <v>552578.48</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="13">
+        <v>74047.740000000005</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B32" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="13">
+        <v>552783.97</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="13">
+        <v>74004.539999999994</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B33" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="13">
+        <v>552784.81999999995</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13">
+        <v>74009.259999999995</v>
+      </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B34" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="13">
+        <v>552666.85</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13">
+        <v>74705.2</v>
+      </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B35" s="22"/>
+      <c r="D35" s="24"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="13"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B36" s="22"/>
+      <c r="D36" s="24"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="13"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B37" s="22"/>
+      <c r="D37" s="24"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="13"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="G38" s="20"/>
+    <row r="38" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B38" s="22"/>
+      <c r="C38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B39" s="22"/>
       <c r="C39" s="18"/>
       <c r="E39" s="18"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="18"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B40" s="22"/>
       <c r="C40" s="17"/>
       <c r="E40" s="17"/>
+      <c r="F40" s="24"/>
       <c r="G40" s="17"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B41" s="22"/>
       <c r="C41" s="17"/>
       <c r="E41" s="17"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="17"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="14.25" customHeight="1">
       <c r="C42" s="17"/>
       <c r="E42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" ht="14.25" customHeight="1">
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="14.25" customHeight="1">
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="14.25" customHeight="1">
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="14.25" customHeight="1">
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="14.25" customHeight="1">
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="14.25" customHeight="1">
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:8" ht="14.25" customHeight="1">
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:8" ht="14.25" customHeight="1">
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:8" ht="14.25" customHeight="1">
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:8" ht="14.25" customHeight="1">
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:8" ht="14.25" customHeight="1">
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:8" ht="14.25" customHeight="1">
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:8" ht="14.25" customHeight="1">
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:8" ht="14.25" customHeight="1">
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:8" ht="14.25" customHeight="1">
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:8" ht="14.25" customHeight="1">
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:8" ht="14.25" customHeight="1">
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:8" ht="14.25" customHeight="1">
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="8:8" ht="14.25" customHeight="1">
       <c r="H61" s="7"/>
     </row>
-    <row r="91" spans="26:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="26:26" ht="14.25" customHeight="1">
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="26:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="26:26" ht="14.25" customHeight="1">
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="26:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="26:26" ht="14.25" customHeight="1">
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="26:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="26:26" ht="14.25" customHeight="1">
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="26:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="26:26" ht="14.25" customHeight="1">
       <c r="Z95" s="1"/>
     </row>
   </sheetData>
@@ -1450,12 +1634,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
